--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T16:15:01+00:00</t>
+    <t>2025-12-05T08:40:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:40:02+00:00</t>
+    <t>2025-12-11T09:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:28:46+00:00</t>
+    <t>2025-12-11T09:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:35:14+00:00</t>
+    <t>2025-12-11T10:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -844,7 +844,7 @@
     <t>ESMSBundleResultatRechercheNotificationESMS</t>
   </si>
   <si>
-    <t>Profil ESMS-SDO créé dans le contexte du suivi des orientations pour transporter les résultats d’une recherche de notification.</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour transporter les résultats d’une recherche de notification.</t>
   </si>
   <si>
     <t xml:space="preserve">Task {https://interop.esante.gouv.fr/ig/fhir/sdo/StructureDefinition/esms-task}
@@ -1852,7 +1852,7 @@
     <t>ESMSDocumentReference</t>
   </si>
   <si>
-    <t>Profil ESMS héritant du profil ESMSDocumentReference. Profil utilisé pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
   </si>
   <si>
     <t>DocumentReference</t>
@@ -2634,7 +2634,7 @@
     <t>ESMSTask</t>
   </si>
   <si>
-    <t>Profil ESMS-SDO créé dans le contexte du suivi des orientations pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation.</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation.</t>
   </si>
   <si>
     <t>Task</t>
@@ -24331,7 +24331,7 @@
         <v>605</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>76</v>
+        <v>605</v>
       </c>
       <c r="I187" t="s" s="2">
         <v>74</v>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T10:52:32+00:00</t>
+    <t>2025-12-11T11:03:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
